--- a/Code/Results/Cases/Case_4_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.56674451114662</v>
+        <v>10.90566285846436</v>
       </c>
       <c r="C2">
-        <v>13.59305601152733</v>
+        <v>8.485397513044358</v>
       </c>
       <c r="D2">
-        <v>7.250167491218145</v>
+        <v>5.961199038305452</v>
       </c>
       <c r="E2">
-        <v>12.32503421682935</v>
+        <v>12.03872722669509</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.51448483611523</v>
+        <v>21.92890485486357</v>
       </c>
       <c r="H2">
-        <v>7.824314471262486</v>
+        <v>12.26453792122942</v>
       </c>
       <c r="I2">
-        <v>10.59942907125525</v>
+        <v>16.99738304866474</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.36733273543836</v>
+        <v>13.9815265574655</v>
       </c>
       <c r="N2">
-        <v>11.01273626972426</v>
+        <v>16.22224096298492</v>
       </c>
       <c r="O2">
-        <v>13.23952232062394</v>
+        <v>17.79067923743658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.39744031723102</v>
+        <v>10.33793240923849</v>
       </c>
       <c r="C3">
-        <v>12.80253544016911</v>
+        <v>8.077531742741494</v>
       </c>
       <c r="D3">
-        <v>6.749581824970156</v>
+        <v>5.837777789821213</v>
       </c>
       <c r="E3">
-        <v>11.66232430432411</v>
+        <v>11.92664659270388</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.37380829976396</v>
+        <v>21.74777922227914</v>
       </c>
       <c r="H3">
-        <v>7.760495616642089</v>
+        <v>12.2952220396429</v>
       </c>
       <c r="I3">
-        <v>10.66763168519398</v>
+        <v>17.07954403260053</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.25089218209357</v>
+        <v>13.70000007311172</v>
       </c>
       <c r="N3">
-        <v>11.14932197603229</v>
+        <v>16.2693648347987</v>
       </c>
       <c r="O3">
-        <v>12.90130261639718</v>
+        <v>17.80293235561032</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.63829687334133</v>
+        <v>9.973432640156052</v>
       </c>
       <c r="C4">
-        <v>12.29158714801673</v>
+        <v>7.814714950598358</v>
       </c>
       <c r="D4">
-        <v>6.424896088925045</v>
+        <v>5.762429399052676</v>
       </c>
       <c r="E4">
-        <v>11.25072558699546</v>
+        <v>11.86203899902303</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.67069922103355</v>
+        <v>21.6456564099924</v>
       </c>
       <c r="H4">
-        <v>7.727860922077709</v>
+        <v>12.31662140449321</v>
       </c>
       <c r="I4">
-        <v>10.7222709482991</v>
+        <v>17.1342293487641</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.52831869127799</v>
+        <v>13.52727121263977</v>
       </c>
       <c r="N4">
-        <v>11.23651520224604</v>
+        <v>16.30001671691922</v>
       </c>
       <c r="O4">
-        <v>12.7038565745808</v>
+        <v>17.81570205255757</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.31858773154726</v>
+        <v>9.821050522892273</v>
       </c>
       <c r="C5">
-        <v>12.07699936922729</v>
+        <v>7.704577871896445</v>
       </c>
       <c r="D5">
-        <v>6.288194693666815</v>
+        <v>5.731881702214228</v>
       </c>
       <c r="E5">
-        <v>11.08202650588291</v>
+        <v>11.83679769505758</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.38393186065104</v>
+        <v>21.60637356215696</v>
       </c>
       <c r="H5">
-        <v>7.716164076004461</v>
+        <v>12.32598408913941</v>
       </c>
       <c r="I5">
-        <v>10.74757318784476</v>
+        <v>17.15757672210787</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.22451496908506</v>
+        <v>13.45701633373063</v>
       </c>
       <c r="N5">
-        <v>11.27287726490916</v>
+        <v>16.3129403557349</v>
       </c>
       <c r="O5">
-        <v>12.62601365692092</v>
+        <v>17.82222221743801</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26487546147861</v>
+        <v>9.795520433261276</v>
       </c>
       <c r="C6">
-        <v>12.04098441737408</v>
+        <v>7.686108794105026</v>
       </c>
       <c r="D6">
-        <v>6.265229471926174</v>
+        <v>5.726820218134253</v>
       </c>
       <c r="E6">
-        <v>11.05396251880037</v>
+        <v>11.83267280444352</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.33631363505696</v>
+        <v>21.59999285905677</v>
       </c>
       <c r="H6">
-        <v>7.71431720241231</v>
+        <v>12.32757750869242</v>
       </c>
       <c r="I6">
-        <v>10.75195302475177</v>
+        <v>17.16151762891384</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.17350341738062</v>
+        <v>13.44536161577374</v>
       </c>
       <c r="N6">
-        <v>11.27896511414955</v>
+        <v>16.31511247787685</v>
       </c>
       <c r="O6">
-        <v>12.6132472206244</v>
+        <v>17.82338429612913</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.63402706249168</v>
+        <v>9.971392905749543</v>
       </c>
       <c r="C7">
-        <v>12.28871885371824</v>
+        <v>7.813241788225763</v>
       </c>
       <c r="D7">
-        <v>6.423070301706553</v>
+        <v>5.762016720213923</v>
       </c>
       <c r="E7">
-        <v>11.24845407005541</v>
+        <v>11.86169415040113</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.66683213986867</v>
+        <v>21.64511712297813</v>
       </c>
       <c r="H7">
-        <v>7.727696749601656</v>
+        <v>12.31674507415417</v>
       </c>
       <c r="I7">
-        <v>10.72260011438888</v>
+        <v>17.13453992096733</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.52425936788627</v>
+        <v>13.52632305535737</v>
       </c>
       <c r="N7">
-        <v>11.23700224092819</v>
+        <v>16.30018925634099</v>
       </c>
       <c r="O7">
-        <v>12.70279610181321</v>
+        <v>17.815784660012</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.17211476465255</v>
+        <v>10.71329654532148</v>
       </c>
       <c r="C8">
-        <v>13.32581843073085</v>
+        <v>8.347378290667491</v>
       </c>
       <c r="D8">
-        <v>7.081141066465717</v>
+        <v>5.918582469276722</v>
       </c>
       <c r="E8">
-        <v>12.09762005002354</v>
+        <v>11.99922562282198</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.12199215451768</v>
+        <v>21.86459656305553</v>
       </c>
       <c r="H8">
-        <v>7.800924109658036</v>
+        <v>12.27458591357164</v>
       </c>
       <c r="I8">
-        <v>10.62019106563663</v>
+        <v>17.0248306948332</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.99005876967416</v>
+        <v>13.88448927960382</v>
       </c>
       <c r="N8">
-        <v>11.05913547354158</v>
+        <v>16.23813327866921</v>
       </c>
       <c r="O8">
-        <v>13.12081357202669</v>
+        <v>17.79381381437125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.86203687247952</v>
+        <v>12.03640013990192</v>
       </c>
       <c r="C9">
-        <v>15.15519351865015</v>
+        <v>9.29379177324404</v>
       </c>
       <c r="D9">
-        <v>8.235682887727856</v>
+        <v>6.226954770516667</v>
       </c>
       <c r="E9">
-        <v>13.7183574437628</v>
+        <v>12.30097141811795</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.93769841248286</v>
+        <v>22.36474795624078</v>
       </c>
       <c r="H9">
-        <v>7.998342795577826</v>
+        <v>12.21227116628366</v>
       </c>
       <c r="I9">
-        <v>10.52856103691565</v>
+        <v>16.84345550159587</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.57218634467216</v>
+        <v>14.58356249975704</v>
       </c>
       <c r="N9">
-        <v>10.73713522204093</v>
+        <v>16.13003285211069</v>
       </c>
       <c r="O9">
-        <v>14.01924363002998</v>
+        <v>17.79244518700564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.64099269908321</v>
+        <v>12.92229191781887</v>
       </c>
       <c r="C10">
-        <v>16.37372763644577</v>
+        <v>9.924610504931852</v>
       </c>
       <c r="D10">
-        <v>9.003232077979627</v>
+        <v>6.451641892973459</v>
       </c>
       <c r="E10">
-        <v>15.0175379169099</v>
+        <v>12.54022165859255</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.9661704738437</v>
+        <v>22.77121069250364</v>
       </c>
       <c r="H10">
-        <v>8.178487326318491</v>
+        <v>12.17896802626595</v>
       </c>
       <c r="I10">
-        <v>10.53882908716617</v>
+        <v>16.73096970978148</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.29448674605097</v>
+        <v>15.08960747070554</v>
       </c>
       <c r="N10">
-        <v>10.51754166106105</v>
+        <v>16.05884537415454</v>
       </c>
       <c r="O10">
-        <v>14.72390630356247</v>
+        <v>17.81694096451936</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40795889338821</v>
+        <v>13.30571129230105</v>
       </c>
       <c r="C11">
-        <v>16.90088277845187</v>
+        <v>10.19714061523203</v>
       </c>
       <c r="D11">
-        <v>9.335379208097722</v>
+        <v>6.552917318722347</v>
       </c>
       <c r="E11">
-        <v>15.62373016798257</v>
+        <v>12.65241744004726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.87785613821577</v>
+        <v>22.9637542322323</v>
       </c>
       <c r="H11">
-        <v>8.268487471142134</v>
+        <v>12.16653983256499</v>
       </c>
       <c r="I11">
-        <v>10.56272573084991</v>
+        <v>16.68434749003045</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.04098502006081</v>
+        <v>15.31708035853388</v>
       </c>
       <c r="N11">
-        <v>10.42151355173378</v>
+        <v>16.02823763644902</v>
       </c>
       <c r="O11">
-        <v>15.05345947874971</v>
+        <v>17.83361858467035</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.69235836455337</v>
+        <v>13.44803193334883</v>
       </c>
       <c r="C12">
-        <v>17.09661417264232</v>
+        <v>10.29823784442984</v>
       </c>
       <c r="D12">
-        <v>9.458749442758053</v>
+        <v>6.591091710825332</v>
       </c>
       <c r="E12">
-        <v>15.85024820670577</v>
+        <v>12.69534603785706</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.22137086674965</v>
+        <v>23.03768985969285</v>
       </c>
       <c r="H12">
-        <v>8.303756819725136</v>
+        <v>12.16222578125618</v>
       </c>
       <c r="I12">
-        <v>10.5747325996819</v>
+        <v>16.66735028520333</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.318432936099</v>
+        <v>15.40274076324959</v>
       </c>
       <c r="N12">
-        <v>10.38572535551977</v>
+        <v>16.01690188316217</v>
       </c>
       <c r="O12">
-        <v>15.17949451460026</v>
+        <v>17.84072792013531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.63137539244054</v>
+        <v>13.41750915132639</v>
       </c>
       <c r="C13">
-        <v>17.05463262716977</v>
+        <v>10.27655871760724</v>
       </c>
       <c r="D13">
-        <v>9.432285837148404</v>
+        <v>6.582878658009104</v>
       </c>
       <c r="E13">
-        <v>15.80159664503823</v>
+        <v>12.68608157108798</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.147466832769</v>
+        <v>23.02172219776826</v>
       </c>
       <c r="H13">
-        <v>8.296107623288737</v>
+        <v>12.16313743195334</v>
       </c>
       <c r="I13">
-        <v>10.57201212646192</v>
+        <v>16.67098163230081</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.25891095635469</v>
+        <v>15.38431486707642</v>
       </c>
       <c r="N13">
-        <v>10.39340703940957</v>
+        <v>16.01933192086641</v>
       </c>
       <c r="O13">
-        <v>15.15229620874966</v>
+        <v>17.83916153052431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.43147724567206</v>
+        <v>13.3174779400465</v>
       </c>
       <c r="C14">
-        <v>16.9170635784266</v>
+        <v>10.20550025579777</v>
       </c>
       <c r="D14">
-        <v>9.345576949561551</v>
+        <v>6.556061715270646</v>
       </c>
       <c r="E14">
-        <v>15.64242610985297</v>
+        <v>12.65594056883189</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.90615233434897</v>
+        <v>22.96981688599758</v>
       </c>
       <c r="H14">
-        <v>8.27136512022359</v>
+        <v>12.16617704739463</v>
       </c>
       <c r="I14">
-        <v>10.56365317335588</v>
+        <v>16.68293591948914</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.06391522975038</v>
+        <v>15.32413775943335</v>
       </c>
       <c r="N14">
-        <v>10.41855757654084</v>
+        <v>16.02729993548375</v>
       </c>
       <c r="O14">
-        <v>15.06380387410848</v>
+        <v>17.83418757792732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.30824956787512</v>
+        <v>13.2558304322658</v>
       </c>
       <c r="C15">
-        <v>16.83229246152932</v>
+        <v>10.16170014282522</v>
       </c>
       <c r="D15">
-        <v>9.292153049014097</v>
+        <v>6.539611390216783</v>
       </c>
       <c r="E15">
-        <v>15.54453774171157</v>
+        <v>12.63753474114497</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.75811324060428</v>
+        <v>22.93815441023468</v>
       </c>
       <c r="H15">
-        <v>8.256365236234029</v>
+        <v>12.1680900042224</v>
       </c>
       <c r="I15">
-        <v>10.55892392424933</v>
+        <v>16.69034401372181</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.94379562493199</v>
+        <v>15.28721274110136</v>
       </c>
       <c r="N15">
-        <v>10.4340385980508</v>
+        <v>16.03221373004797</v>
       </c>
       <c r="O15">
-        <v>15.00975985431838</v>
+        <v>17.83124420123491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.59002256606353</v>
+        <v>12.89683549565536</v>
       </c>
       <c r="C16">
-        <v>16.33873132122923</v>
+        <v>9.906507017784875</v>
       </c>
       <c r="D16">
-        <v>8.981186484702807</v>
+        <v>6.445000840687581</v>
       </c>
       <c r="E16">
-        <v>14.97749141471124</v>
+        <v>12.53295355130058</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.90635461227528</v>
+        <v>22.75877490529571</v>
       </c>
       <c r="H16">
-        <v>8.172770273757134</v>
+        <v>12.17983508074888</v>
       </c>
       <c r="I16">
-        <v>10.53767084095531</v>
+        <v>16.73410840945464</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.2449640443909</v>
+        <v>15.07467917799171</v>
       </c>
       <c r="N16">
-        <v>10.52389672725509</v>
+        <v>16.06088134149225</v>
       </c>
       <c r="O16">
-        <v>14.70254553789475</v>
+        <v>17.81596226307938</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.13861367527456</v>
+        <v>12.67154535437847</v>
       </c>
       <c r="C17">
-        <v>16.02899853844347</v>
+        <v>9.746235481777413</v>
       </c>
       <c r="D17">
-        <v>8.786088633332831</v>
+        <v>6.386690084790536</v>
       </c>
       <c r="E17">
-        <v>14.62410984523586</v>
+        <v>12.46962823547821</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.38088308985074</v>
+        <v>22.65063578347842</v>
       </c>
       <c r="H17">
-        <v>8.12357201903386</v>
+        <v>12.18773802791715</v>
       </c>
       <c r="I17">
-        <v>10.52969534249317</v>
+        <v>16.76212389726811</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.80683750085138</v>
+        <v>14.94353473099894</v>
       </c>
       <c r="N17">
-        <v>10.58002498639657</v>
+        <v>16.07892236596245</v>
       </c>
       <c r="O17">
-        <v>14.51634366170248</v>
+        <v>17.80800368365898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.87499145302798</v>
+        <v>12.54012429702368</v>
       </c>
       <c r="C18">
-        <v>15.84829030302875</v>
+        <v>9.652694372892618</v>
       </c>
       <c r="D18">
-        <v>8.67226950151929</v>
+        <v>6.353065541060382</v>
       </c>
       <c r="E18">
-        <v>14.41879481983436</v>
+        <v>12.43352391035584</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.07760734337739</v>
+        <v>22.58916096238142</v>
       </c>
       <c r="H18">
-        <v>8.096030666580067</v>
+        <v>12.19253971651894</v>
       </c>
       <c r="I18">
-        <v>10.52690625640544</v>
+        <v>16.7786655409211</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.55135196145975</v>
+        <v>14.86785183639108</v>
       </c>
       <c r="N18">
-        <v>10.61267102128891</v>
+        <v>16.08946626897776</v>
       </c>
       <c r="O18">
-        <v>14.41009505181669</v>
+        <v>17.80394721684963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.78504795007535</v>
+        <v>12.49531326476938</v>
       </c>
       <c r="C19">
-        <v>15.78666592539884</v>
+        <v>9.620790838713233</v>
       </c>
       <c r="D19">
-        <v>8.633455616094874</v>
+        <v>6.341667437746837</v>
       </c>
       <c r="E19">
-        <v>14.34892215028419</v>
+        <v>12.42135557093575</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.97474981954863</v>
+        <v>22.56847323714921</v>
       </c>
       <c r="H19">
-        <v>8.086834549325756</v>
+        <v>12.19420944631381</v>
       </c>
       <c r="I19">
-        <v>10.52626482524102</v>
+        <v>16.78433963562544</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.46424769332503</v>
+        <v>14.84218632211091</v>
       </c>
       <c r="N19">
-        <v>10.62378612691096</v>
+        <v>16.09306498664595</v>
       </c>
       <c r="O19">
-        <v>14.37426881202421</v>
+        <v>17.80266330997098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.18707890540998</v>
+        <v>12.69571876867622</v>
       </c>
       <c r="C20">
-        <v>16.062234797618</v>
+        <v>9.763437347660137</v>
       </c>
       <c r="D20">
-        <v>8.80702285657768</v>
+        <v>6.392906548936415</v>
       </c>
       <c r="E20">
-        <v>14.66194035845917</v>
+        <v>12.476336628661</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.436929001189</v>
+        <v>22.66207299041887</v>
       </c>
       <c r="H20">
-        <v>8.128730767927157</v>
+        <v>12.18687023122855</v>
       </c>
       <c r="I20">
-        <v>10.53035683000355</v>
+        <v>16.75909729108381</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.85383710588913</v>
+        <v>14.95752201049661</v>
       </c>
       <c r="N20">
-        <v>10.57401238302957</v>
+        <v>16.07698456989909</v>
       </c>
       <c r="O20">
-        <v>14.53607763411707</v>
+        <v>17.80879696750719</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.49035552922458</v>
+        <v>13.34693787158305</v>
       </c>
       <c r="C21">
-        <v>16.95757637495178</v>
+        <v>10.22642914987654</v>
       </c>
       <c r="D21">
-        <v>9.371110440682116</v>
+        <v>6.563943610236711</v>
       </c>
       <c r="E21">
-        <v>15.68925980660718</v>
+        <v>12.66478203025822</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.97707971211295</v>
+        <v>22.9850355657858</v>
       </c>
       <c r="H21">
-        <v>8.278600111836388</v>
+        <v>12.16527358711418</v>
       </c>
       <c r="I21">
-        <v>10.56602660856312</v>
+        <v>16.67940677930117</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.12133156192552</v>
+        <v>15.34182688590805</v>
       </c>
       <c r="N21">
-        <v>10.41115446149377</v>
+        <v>16.02495262794248</v>
       </c>
       <c r="O21">
-        <v>15.08976293849401</v>
+        <v>17.83562702286745</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.30697785170334</v>
+        <v>13.75994557307548</v>
       </c>
       <c r="C22">
-        <v>17.52006820619067</v>
+        <v>10.51674795166079</v>
       </c>
       <c r="D22">
-        <v>9.725766168650702</v>
+        <v>6.674680323193234</v>
       </c>
       <c r="E22">
-        <v>16.34304698023682</v>
+        <v>12.79050186253409</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.98981756141704</v>
+        <v>23.20204009357448</v>
       </c>
       <c r="H22">
-        <v>8.383487239685204</v>
+        <v>12.15344550091331</v>
       </c>
       <c r="I22">
-        <v>10.60666527350273</v>
+        <v>16.63115919331245</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.91924522181982</v>
+        <v>15.59016615057519</v>
       </c>
       <c r="N22">
-        <v>10.30808365218173</v>
+        <v>15.99243124907598</v>
       </c>
       <c r="O22">
-        <v>15.4588400098868</v>
+        <v>17.85778779889656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.87432960622905</v>
+        <v>13.53912656975063</v>
       </c>
       <c r="C23">
-        <v>17.22192243102091</v>
+        <v>10.36293031904897</v>
       </c>
       <c r="D23">
-        <v>9.53774779800303</v>
+        <v>6.615686925350658</v>
       </c>
       <c r="E23">
-        <v>15.99568370554807</v>
+        <v>12.72318219347735</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.44268894496991</v>
+        <v>23.08570351996959</v>
       </c>
       <c r="H23">
-        <v>8.326862532626732</v>
+        <v>12.15954889450877</v>
       </c>
       <c r="I23">
-        <v>10.58332756118685</v>
+        <v>16.65655776669305</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.49614153048835</v>
+        <v>15.45790853236726</v>
       </c>
       <c r="N23">
-        <v>10.36277915162558</v>
+        <v>16.00965288969222</v>
       </c>
       <c r="O23">
-        <v>15.26121213672339</v>
+        <v>17.84553780508072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16518055280792</v>
+        <v>12.68479587784511</v>
       </c>
       <c r="C24">
-        <v>16.0472169049491</v>
+        <v>9.755664739083148</v>
       </c>
       <c r="D24">
-        <v>8.797563651522381</v>
+        <v>6.39009639662535</v>
       </c>
       <c r="E24">
-        <v>14.64484389160571</v>
+        <v>12.47330281956942</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.41159429472543</v>
+        <v>22.65690005606879</v>
       </c>
       <c r="H24">
-        <v>8.12639618441653</v>
+        <v>12.18726175794782</v>
       </c>
       <c r="I24">
-        <v>10.53005219163153</v>
+        <v>16.76046426446885</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.83259980621445</v>
+        <v>14.95119924628187</v>
       </c>
       <c r="N24">
-        <v>10.57672950771491</v>
+        <v>16.0778601120463</v>
       </c>
       <c r="O24">
-        <v>14.52715340503678</v>
+        <v>17.80843670698334</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.16914461504956</v>
+        <v>11.69325189652054</v>
       </c>
       <c r="C25">
-        <v>14.68232451104888</v>
+        <v>9.048916188060856</v>
       </c>
       <c r="D25">
-        <v>7.937680533577087</v>
+        <v>6.143672716418735</v>
       </c>
       <c r="E25">
-        <v>13.28552259755453</v>
+        <v>12.21610710934766</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.18203392692486</v>
+        <v>22.22232244255398</v>
       </c>
       <c r="H25">
-        <v>7.938924751287209</v>
+        <v>12.22694192143997</v>
       </c>
       <c r="I25">
-        <v>10.54052871990951</v>
+        <v>16.88888833418602</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.90463151333824</v>
+        <v>14.39538545210272</v>
       </c>
       <c r="N25">
-        <v>10.82131715370476</v>
+        <v>16.15782727690948</v>
       </c>
       <c r="O25">
-        <v>13.76811526561992</v>
+        <v>17.78833868404448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_113/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.90566285846436</v>
+        <v>18.56674451114663</v>
       </c>
       <c r="C2">
-        <v>8.485397513044358</v>
+        <v>13.59305601152728</v>
       </c>
       <c r="D2">
-        <v>5.961199038305452</v>
+        <v>7.250167491218172</v>
       </c>
       <c r="E2">
-        <v>12.03872722669509</v>
+        <v>12.32503421682937</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.92890485486357</v>
+        <v>22.51448483611526</v>
       </c>
       <c r="H2">
-        <v>12.26453792122942</v>
+        <v>7.824314471262504</v>
       </c>
       <c r="I2">
-        <v>16.99738304866474</v>
+        <v>10.59942907125528</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.9815265574655</v>
+        <v>17.36733273543836</v>
       </c>
       <c r="N2">
-        <v>16.22224096298492</v>
+        <v>11.01273626972425</v>
       </c>
       <c r="O2">
-        <v>17.79067923743658</v>
+        <v>13.23952232062395</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.33793240923849</v>
+        <v>17.397440317231</v>
       </c>
       <c r="C3">
-        <v>8.077531742741494</v>
+        <v>12.80253544016907</v>
       </c>
       <c r="D3">
-        <v>5.837777789821213</v>
+        <v>6.749581824970292</v>
       </c>
       <c r="E3">
-        <v>11.92664659270388</v>
+        <v>11.66232430432409</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.74777922227914</v>
+        <v>21.37380829976398</v>
       </c>
       <c r="H3">
-        <v>12.2952220396429</v>
+        <v>7.760495616642049</v>
       </c>
       <c r="I3">
-        <v>17.07954403260053</v>
+        <v>10.66763168519394</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.70000007311172</v>
+        <v>16.25089218209358</v>
       </c>
       <c r="N3">
-        <v>16.2693648347987</v>
+        <v>11.14932197603225</v>
       </c>
       <c r="O3">
-        <v>17.80293235561032</v>
+        <v>12.90130261639717</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.973432640156052</v>
+        <v>16.63829687334139</v>
       </c>
       <c r="C4">
-        <v>7.814714950598358</v>
+        <v>12.29158714801677</v>
       </c>
       <c r="D4">
-        <v>5.762429399052676</v>
+        <v>6.424896088925079</v>
       </c>
       <c r="E4">
-        <v>11.86203899902303</v>
+        <v>11.25072558699547</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.6456564099924</v>
+        <v>20.67069922103358</v>
       </c>
       <c r="H4">
-        <v>12.31662140449321</v>
+        <v>7.727860922077662</v>
       </c>
       <c r="I4">
-        <v>17.1342293487641</v>
+        <v>10.72227094829907</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.52727121263977</v>
+        <v>15.528318691278</v>
       </c>
       <c r="N4">
-        <v>16.30001671691922</v>
+        <v>11.23651520224603</v>
       </c>
       <c r="O4">
-        <v>17.81570205255757</v>
+        <v>12.70385657458077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.821050522892273</v>
+        <v>16.31858773154726</v>
       </c>
       <c r="C5">
-        <v>7.704577871896445</v>
+        <v>12.07699936922719</v>
       </c>
       <c r="D5">
-        <v>5.731881702214228</v>
+        <v>6.288194693666759</v>
       </c>
       <c r="E5">
-        <v>11.83679769505758</v>
+        <v>11.08202650588289</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.60637356215696</v>
+        <v>20.38393186065117</v>
       </c>
       <c r="H5">
-        <v>12.32598408913941</v>
+        <v>7.716164076004503</v>
       </c>
       <c r="I5">
-        <v>17.15757672210787</v>
+        <v>10.7475731878448</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.45701633373063</v>
+        <v>15.22451496908506</v>
       </c>
       <c r="N5">
-        <v>16.3129403557349</v>
+        <v>11.27287726490918</v>
       </c>
       <c r="O5">
-        <v>17.82222221743801</v>
+        <v>12.62601365692099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.795520433261276</v>
+        <v>16.26487546147864</v>
       </c>
       <c r="C6">
-        <v>7.686108794105026</v>
+        <v>12.0409844173742</v>
       </c>
       <c r="D6">
-        <v>5.726820218134253</v>
+        <v>6.265229471926191</v>
       </c>
       <c r="E6">
-        <v>11.83267280444352</v>
+        <v>11.05396251880038</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.59999285905677</v>
+        <v>20.33631363505701</v>
       </c>
       <c r="H6">
-        <v>12.32757750869242</v>
+        <v>7.714317202412278</v>
       </c>
       <c r="I6">
-        <v>17.16151762891384</v>
+        <v>10.7519530247518</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.44536161577374</v>
+        <v>15.17350341738066</v>
       </c>
       <c r="N6">
-        <v>16.31511247787685</v>
+        <v>11.27896511414955</v>
       </c>
       <c r="O6">
-        <v>17.82338429612913</v>
+        <v>12.61324722062437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.971392905749543</v>
+        <v>16.63402706249165</v>
       </c>
       <c r="C7">
-        <v>7.813241788225763</v>
+        <v>12.28871885371814</v>
       </c>
       <c r="D7">
-        <v>5.762016720213923</v>
+        <v>6.423070301706566</v>
       </c>
       <c r="E7">
-        <v>11.86169415040113</v>
+        <v>11.24845407005538</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.64511712297813</v>
+        <v>20.66683213986864</v>
       </c>
       <c r="H7">
-        <v>12.31674507415417</v>
+        <v>7.727696749601696</v>
       </c>
       <c r="I7">
-        <v>17.13453992096733</v>
+        <v>10.7226001143889</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.52632305535737</v>
+        <v>15.52425936788629</v>
       </c>
       <c r="N7">
-        <v>16.30018925634099</v>
+        <v>11.23700224092816</v>
       </c>
       <c r="O7">
-        <v>17.815784660012</v>
+        <v>12.70279610181321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.71329654532148</v>
+        <v>18.17211476465258</v>
       </c>
       <c r="C8">
-        <v>8.347378290667491</v>
+        <v>13.325818430731</v>
       </c>
       <c r="D8">
-        <v>5.918582469276722</v>
+        <v>7.081141066465708</v>
       </c>
       <c r="E8">
-        <v>11.99922562282198</v>
+        <v>12.09762005002355</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.86459656305553</v>
+        <v>22.12199215451773</v>
       </c>
       <c r="H8">
-        <v>12.27458591357164</v>
+        <v>7.800924109658047</v>
       </c>
       <c r="I8">
-        <v>17.0248306948332</v>
+        <v>10.62019106563667</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.88448927960382</v>
+        <v>16.99005876967421</v>
       </c>
       <c r="N8">
-        <v>16.23813327866921</v>
+        <v>11.05913547354158</v>
       </c>
       <c r="O8">
-        <v>17.79381381437125</v>
+        <v>13.1208135720267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.03640013990192</v>
+        <v>20.86203687247947</v>
       </c>
       <c r="C9">
-        <v>9.29379177324404</v>
+        <v>15.15519351865019</v>
       </c>
       <c r="D9">
-        <v>6.226954770516667</v>
+        <v>8.235682887727856</v>
       </c>
       <c r="E9">
-        <v>12.30097141811795</v>
+        <v>13.71835744376278</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.36474795624078</v>
+        <v>24.93769841248291</v>
       </c>
       <c r="H9">
-        <v>12.21227116628366</v>
+        <v>7.998342795577821</v>
       </c>
       <c r="I9">
-        <v>16.84345550159587</v>
+        <v>10.5285610369157</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.58356249975704</v>
+        <v>19.57218634467218</v>
       </c>
       <c r="N9">
-        <v>16.13003285211069</v>
+        <v>10.7371352220409</v>
       </c>
       <c r="O9">
-        <v>17.79244518700564</v>
+        <v>14.01924363002998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.92229191781887</v>
+        <v>22.64099269908313</v>
       </c>
       <c r="C10">
-        <v>9.924610504931852</v>
+        <v>16.3737276364458</v>
       </c>
       <c r="D10">
-        <v>6.451641892973459</v>
+        <v>9.003232077979643</v>
       </c>
       <c r="E10">
-        <v>12.54022165859255</v>
+        <v>15.01753791690991</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>22.77121069250364</v>
+        <v>26.96617047384377</v>
       </c>
       <c r="H10">
-        <v>12.17896802626595</v>
+        <v>8.178487326318521</v>
       </c>
       <c r="I10">
-        <v>16.73096970978148</v>
+        <v>10.53882908716623</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.08960747070554</v>
+        <v>21.29448674605095</v>
       </c>
       <c r="N10">
-        <v>16.05884537415454</v>
+        <v>10.51754166106105</v>
       </c>
       <c r="O10">
-        <v>17.81694096451936</v>
+        <v>14.72390630356252</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.30571129230105</v>
+        <v>23.40795889338817</v>
       </c>
       <c r="C11">
-        <v>10.19714061523203</v>
+        <v>16.90088277845181</v>
       </c>
       <c r="D11">
-        <v>6.552917318722347</v>
+        <v>9.335379208097697</v>
       </c>
       <c r="E11">
-        <v>12.65241744004726</v>
+        <v>15.62373016798257</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.9637542322323</v>
+        <v>27.8778561382158</v>
       </c>
       <c r="H11">
-        <v>12.16653983256499</v>
+        <v>8.268487471142141</v>
       </c>
       <c r="I11">
-        <v>16.68434749003045</v>
+        <v>10.56272573084994</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.31708035853388</v>
+        <v>22.04098502006079</v>
       </c>
       <c r="N11">
-        <v>16.02823763644902</v>
+        <v>10.42151355173374</v>
       </c>
       <c r="O11">
-        <v>17.83361858467035</v>
+        <v>15.05345947874974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.44803193334883</v>
+        <v>23.69235836455335</v>
       </c>
       <c r="C12">
-        <v>10.29823784442984</v>
+        <v>17.09661417264239</v>
       </c>
       <c r="D12">
-        <v>6.591091710825332</v>
+        <v>9.458749442758016</v>
       </c>
       <c r="E12">
-        <v>12.69534603785706</v>
+        <v>15.85024820670578</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.03768985969285</v>
+        <v>28.22137086674964</v>
       </c>
       <c r="H12">
-        <v>12.16222578125618</v>
+        <v>8.303756819725136</v>
       </c>
       <c r="I12">
-        <v>16.66735028520333</v>
+        <v>10.57473259968195</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.40274076324959</v>
+        <v>22.318432936099</v>
       </c>
       <c r="N12">
-        <v>16.01690188316217</v>
+        <v>10.38572535551981</v>
       </c>
       <c r="O12">
-        <v>17.84072792013531</v>
+        <v>15.17949451460028</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.41750915132639</v>
+        <v>23.63137539244052</v>
       </c>
       <c r="C13">
-        <v>10.27655871760724</v>
+        <v>17.05463262716962</v>
       </c>
       <c r="D13">
-        <v>6.582878658009104</v>
+        <v>9.432285837148481</v>
       </c>
       <c r="E13">
-        <v>12.68608157108798</v>
+        <v>15.80159664503818</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.02172219776826</v>
+        <v>28.14746683276904</v>
       </c>
       <c r="H13">
-        <v>12.16313743195334</v>
+        <v>8.296107623288806</v>
       </c>
       <c r="I13">
-        <v>16.67098163230081</v>
+        <v>10.57201212646198</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.38431486707642</v>
+        <v>22.25891095635461</v>
       </c>
       <c r="N13">
-        <v>16.01933192086641</v>
+        <v>10.39340703940956</v>
       </c>
       <c r="O13">
-        <v>17.83916153052431</v>
+        <v>15.1522962087497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.3174779400465</v>
+        <v>23.43147724567208</v>
       </c>
       <c r="C14">
-        <v>10.20550025579777</v>
+        <v>16.91706357842672</v>
       </c>
       <c r="D14">
-        <v>6.556061715270646</v>
+        <v>9.345576949561616</v>
       </c>
       <c r="E14">
-        <v>12.65594056883189</v>
+        <v>15.64242610985297</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.96981688599758</v>
+        <v>27.90615233434904</v>
       </c>
       <c r="H14">
-        <v>12.16617704739463</v>
+        <v>8.271365120223528</v>
       </c>
       <c r="I14">
-        <v>16.68293591948914</v>
+        <v>10.56365317335585</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.32413775943335</v>
+        <v>22.0639152297504</v>
       </c>
       <c r="N14">
-        <v>16.02729993548375</v>
+        <v>10.4185575765408</v>
       </c>
       <c r="O14">
-        <v>17.83418757792732</v>
+        <v>15.06380387410845</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.2558304322658</v>
+        <v>23.30824956787513</v>
       </c>
       <c r="C15">
-        <v>10.16170014282522</v>
+        <v>16.8322924615293</v>
       </c>
       <c r="D15">
-        <v>6.539611390216783</v>
+        <v>9.292153049014097</v>
       </c>
       <c r="E15">
-        <v>12.63753474114497</v>
+        <v>15.54453774171157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.93815441023468</v>
+        <v>27.7581132406044</v>
       </c>
       <c r="H15">
-        <v>12.1680900042224</v>
+        <v>8.256365236234057</v>
       </c>
       <c r="I15">
-        <v>16.69034401372181</v>
+        <v>10.55892392424943</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.28721274110136</v>
+        <v>21.94379562493196</v>
       </c>
       <c r="N15">
-        <v>16.03221373004797</v>
+        <v>10.43403859805085</v>
       </c>
       <c r="O15">
-        <v>17.83124420123491</v>
+        <v>15.00975985431846</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.89683549565536</v>
+        <v>22.59002256606357</v>
       </c>
       <c r="C16">
-        <v>9.906507017784875</v>
+        <v>16.33873132122913</v>
       </c>
       <c r="D16">
-        <v>6.445000840687581</v>
+        <v>8.981186484702858</v>
       </c>
       <c r="E16">
-        <v>12.53295355130058</v>
+        <v>14.97749141471122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.75877490529571</v>
+        <v>26.9063546122753</v>
       </c>
       <c r="H16">
-        <v>12.17983508074888</v>
+        <v>8.172770273757157</v>
       </c>
       <c r="I16">
-        <v>16.73410840945464</v>
+        <v>10.53767084095532</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.07467917799171</v>
+        <v>21.24496404439088</v>
       </c>
       <c r="N16">
-        <v>16.06088134149225</v>
+        <v>10.52389672725512</v>
       </c>
       <c r="O16">
-        <v>17.81596226307938</v>
+        <v>14.70254553789477</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.67154535437847</v>
+        <v>22.13861367527458</v>
       </c>
       <c r="C17">
-        <v>9.746235481777413</v>
+        <v>16.02899853844356</v>
       </c>
       <c r="D17">
-        <v>6.386690084790536</v>
+        <v>8.786088633332866</v>
       </c>
       <c r="E17">
-        <v>12.46962823547821</v>
+        <v>14.62410984523589</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.65063578347842</v>
+        <v>26.38088308985075</v>
       </c>
       <c r="H17">
-        <v>12.18773802791715</v>
+        <v>8.123572019033814</v>
       </c>
       <c r="I17">
-        <v>16.76212389726811</v>
+        <v>10.52969534249313</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.94353473099894</v>
+        <v>20.80683750085141</v>
       </c>
       <c r="N17">
-        <v>16.07892236596245</v>
+        <v>10.58002498639654</v>
       </c>
       <c r="O17">
-        <v>17.80800368365898</v>
+        <v>14.51634366170246</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.54012429702368</v>
+        <v>21.87499145302805</v>
       </c>
       <c r="C18">
-        <v>9.652694372892618</v>
+        <v>15.84829030302871</v>
       </c>
       <c r="D18">
-        <v>6.353065541060382</v>
+        <v>8.67226950151929</v>
       </c>
       <c r="E18">
-        <v>12.43352391035584</v>
+        <v>14.41879481983432</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.58916096238142</v>
+        <v>26.07760734337739</v>
       </c>
       <c r="H18">
-        <v>12.19253971651894</v>
+        <v>8.096030666580036</v>
       </c>
       <c r="I18">
-        <v>16.7786655409211</v>
+        <v>10.52690625640539</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.86785183639108</v>
+        <v>20.55135196145975</v>
       </c>
       <c r="N18">
-        <v>16.08946626897776</v>
+        <v>10.61267102128891</v>
       </c>
       <c r="O18">
-        <v>17.80394721684963</v>
+        <v>14.41009505181665</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.49531326476938</v>
+        <v>21.78504795007535</v>
       </c>
       <c r="C19">
-        <v>9.620790838713233</v>
+        <v>15.78666592539884</v>
       </c>
       <c r="D19">
-        <v>6.341667437746837</v>
+        <v>8.63345561609486</v>
       </c>
       <c r="E19">
-        <v>12.42135557093575</v>
+        <v>14.34892215028421</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.56847323714921</v>
+        <v>25.97474981954863</v>
       </c>
       <c r="H19">
-        <v>12.19420944631381</v>
+        <v>8.086834549325781</v>
       </c>
       <c r="I19">
-        <v>16.78433963562544</v>
+        <v>10.52626482524103</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.84218632211091</v>
+        <v>20.46424769332503</v>
       </c>
       <c r="N19">
-        <v>16.09306498664595</v>
+        <v>10.62378612691096</v>
       </c>
       <c r="O19">
-        <v>17.80266330997098</v>
+        <v>14.37426881202421</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.69571876867622</v>
+        <v>22.18707890541009</v>
       </c>
       <c r="C20">
-        <v>9.763437347660137</v>
+        <v>16.06223479761793</v>
       </c>
       <c r="D20">
-        <v>6.392906548936415</v>
+        <v>8.807022856577747</v>
       </c>
       <c r="E20">
-        <v>12.476336628661</v>
+        <v>14.66194035845916</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.66207299041887</v>
+        <v>26.43692900118909</v>
       </c>
       <c r="H20">
-        <v>12.18687023122855</v>
+        <v>8.128730767927035</v>
       </c>
       <c r="I20">
-        <v>16.75909729108381</v>
+        <v>10.53035683000346</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.95752201049661</v>
+        <v>20.85383710588918</v>
       </c>
       <c r="N20">
-        <v>16.07698456989909</v>
+        <v>10.57401238302946</v>
       </c>
       <c r="O20">
-        <v>17.80879696750719</v>
+        <v>14.53607763411703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.34693787158305</v>
+        <v>23.49035552922458</v>
       </c>
       <c r="C21">
-        <v>10.22642914987654</v>
+        <v>16.95757637495177</v>
       </c>
       <c r="D21">
-        <v>6.563943610236711</v>
+        <v>9.371110440682148</v>
       </c>
       <c r="E21">
-        <v>12.66478203025822</v>
+        <v>15.68925980660717</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>22.9850355657858</v>
+        <v>27.97707971211294</v>
       </c>
       <c r="H21">
-        <v>12.16527358711418</v>
+        <v>8.278600111836388</v>
       </c>
       <c r="I21">
-        <v>16.67940677930117</v>
+        <v>10.56602660856315</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.34182688590805</v>
+        <v>22.12133156192552</v>
       </c>
       <c r="N21">
-        <v>16.02495262794248</v>
+        <v>10.41115446149385</v>
       </c>
       <c r="O21">
-        <v>17.83562702286745</v>
+        <v>15.08976293849401</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.75994557307548</v>
+        <v>24.30697785170345</v>
       </c>
       <c r="C22">
-        <v>10.51674795166079</v>
+        <v>17.52006820619075</v>
       </c>
       <c r="D22">
-        <v>6.674680323193234</v>
+        <v>9.725766168650818</v>
       </c>
       <c r="E22">
-        <v>12.79050186253409</v>
+        <v>16.34304698023685</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>23.20204009357448</v>
+        <v>28.98981756141713</v>
       </c>
       <c r="H22">
-        <v>12.15344550091331</v>
+        <v>8.383487239685133</v>
       </c>
       <c r="I22">
-        <v>16.63115919331245</v>
+        <v>10.60666527350265</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.59016615057519</v>
+        <v>22.91924522181989</v>
       </c>
       <c r="N22">
-        <v>15.99243124907598</v>
+        <v>10.30808365218169</v>
       </c>
       <c r="O22">
-        <v>17.85778779889656</v>
+        <v>15.45884000988678</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.53912656975063</v>
+        <v>23.87432960622906</v>
       </c>
       <c r="C23">
-        <v>10.36293031904897</v>
+        <v>17.22192243102091</v>
       </c>
       <c r="D23">
-        <v>6.615686925350658</v>
+        <v>9.537747798002979</v>
       </c>
       <c r="E23">
-        <v>12.72318219347735</v>
+        <v>15.99568370554813</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>23.08570351996959</v>
+        <v>28.44268894496993</v>
       </c>
       <c r="H23">
-        <v>12.15954889450877</v>
+        <v>8.326862532626677</v>
       </c>
       <c r="I23">
-        <v>16.65655776669305</v>
+        <v>10.58332756118682</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.45790853236726</v>
+        <v>22.49614153048839</v>
       </c>
       <c r="N23">
-        <v>16.00965288969222</v>
+        <v>10.36277915162554</v>
       </c>
       <c r="O23">
-        <v>17.84553780508072</v>
+        <v>15.26121213672339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.68479587784511</v>
+        <v>22.16518055280785</v>
       </c>
       <c r="C24">
-        <v>9.755664739083148</v>
+        <v>16.04721690494899</v>
       </c>
       <c r="D24">
-        <v>6.39009639662535</v>
+        <v>8.797563651522394</v>
       </c>
       <c r="E24">
-        <v>12.47330281956942</v>
+        <v>14.64484389160575</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.65690005606879</v>
+        <v>26.4115942947254</v>
       </c>
       <c r="H24">
-        <v>12.18726175794782</v>
+        <v>8.126396184416615</v>
       </c>
       <c r="I24">
-        <v>16.76046426446885</v>
+        <v>10.53005219163164</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.95119924628187</v>
+        <v>20.83259980621443</v>
       </c>
       <c r="N24">
-        <v>16.0778601120463</v>
+        <v>10.57672950771496</v>
       </c>
       <c r="O24">
-        <v>17.80843670698334</v>
+        <v>14.52715340503687</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.69325189652054</v>
+        <v>20.16914461504964</v>
       </c>
       <c r="C25">
-        <v>9.048916188060856</v>
+        <v>14.6823245110488</v>
       </c>
       <c r="D25">
-        <v>6.143672716418735</v>
+        <v>7.937680533577071</v>
       </c>
       <c r="E25">
-        <v>12.21610710934766</v>
+        <v>13.28552259755454</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.22232244255398</v>
+        <v>24.1820339269249</v>
       </c>
       <c r="H25">
-        <v>12.22694192143997</v>
+        <v>7.938924751287216</v>
       </c>
       <c r="I25">
-        <v>16.88888833418602</v>
+        <v>10.54052871990948</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.39538545210272</v>
+        <v>18.90463151333821</v>
       </c>
       <c r="N25">
-        <v>16.15782727690948</v>
+        <v>10.82131715370475</v>
       </c>
       <c r="O25">
-        <v>17.78833868404448</v>
+        <v>13.76811526561995</v>
       </c>
     </row>
   </sheetData>
